--- a/media/students.xlsx
+++ b/media/students.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\WorkSpace\assignments\media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16CD3B54-BB6D-4E0D-AB14-1D899130DC76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3379420-01FD-41EC-A122-EC0DCD638C67}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="840" windowWidth="17280" windowHeight="8964" xr2:uid="{4C5F039A-F040-4777-814D-3C79E5B3831D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4C5F039A-F040-4777-814D-3C79E5B3831D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="77">
   <si>
     <t>stid</t>
   </si>
@@ -34,13 +34,235 @@
   </si>
   <si>
     <t>lastname</t>
+  </si>
+  <si>
+    <t>سينا</t>
+  </si>
+  <si>
+    <t>مينا</t>
+  </si>
+  <si>
+    <t>حسيني</t>
+  </si>
+  <si>
+    <t>اميرحسين</t>
+  </si>
+  <si>
+    <t>عليرضا</t>
+  </si>
+  <si>
+    <t>علي</t>
+  </si>
+  <si>
+    <t>كريمي</t>
+  </si>
+  <si>
+    <t>مهدي</t>
+  </si>
+  <si>
+    <t>پرهام</t>
+  </si>
+  <si>
+    <t>سروش</t>
+  </si>
+  <si>
+    <t>ارين</t>
+  </si>
+  <si>
+    <t>زهرا</t>
+  </si>
+  <si>
+    <t>فاطمه</t>
+  </si>
+  <si>
+    <t>محمدمهدي</t>
+  </si>
+  <si>
+    <t>ارمان</t>
+  </si>
+  <si>
+    <t>اميرعلي</t>
+  </si>
+  <si>
+    <t>نيما</t>
+  </si>
+  <si>
+    <t>ريحانه</t>
+  </si>
+  <si>
+    <t>مبينا</t>
+  </si>
+  <si>
+    <t>محمدامين</t>
+  </si>
+  <si>
+    <t>محيا</t>
+  </si>
+  <si>
+    <t>اتش سخن</t>
+  </si>
+  <si>
+    <t>اتش كاردخت كاشاني</t>
+  </si>
+  <si>
+    <t>محدثه</t>
+  </si>
+  <si>
+    <t>اسمعيلي</t>
+  </si>
+  <si>
+    <t>عارفه</t>
+  </si>
+  <si>
+    <t>اكران</t>
+  </si>
+  <si>
+    <t>طوفان</t>
+  </si>
+  <si>
+    <t>امين اناركي</t>
+  </si>
+  <si>
+    <t>تومان</t>
+  </si>
+  <si>
+    <t>مهرتاش</t>
+  </si>
+  <si>
+    <t>جانان</t>
+  </si>
+  <si>
+    <t>امير</t>
+  </si>
+  <si>
+    <t>جاويدانباردان</t>
+  </si>
+  <si>
+    <t>جباريان</t>
+  </si>
+  <si>
+    <t>جعفرزاده جهرمي</t>
+  </si>
+  <si>
+    <t>حاجي خليل خاني</t>
+  </si>
+  <si>
+    <t>حكم ابادي</t>
+  </si>
+  <si>
+    <t>خدابنده</t>
+  </si>
+  <si>
+    <t>خداكرمي انگيلي</t>
+  </si>
+  <si>
+    <t>خواجه تراب</t>
+  </si>
+  <si>
+    <t>شيرمحمدي</t>
+  </si>
+  <si>
+    <t>پارميس</t>
+  </si>
+  <si>
+    <t>صباغيان</t>
+  </si>
+  <si>
+    <t>آرين</t>
+  </si>
+  <si>
+    <t>عباسيه كهن</t>
+  </si>
+  <si>
+    <t>محمديارا</t>
+  </si>
+  <si>
+    <t>غفارزاده الماسي</t>
+  </si>
+  <si>
+    <t>غفوري صنعتي</t>
+  </si>
+  <si>
+    <t>هليا</t>
+  </si>
+  <si>
+    <t>غلامي علم</t>
+  </si>
+  <si>
+    <t>فرقداني چهارسوقي</t>
+  </si>
+  <si>
+    <t>فرمهيني فراهاني</t>
+  </si>
+  <si>
+    <t>ايمان</t>
+  </si>
+  <si>
+    <t>سهيل</t>
+  </si>
+  <si>
+    <t>كريمي وادقاني</t>
+  </si>
+  <si>
+    <t>سيد كسري</t>
+  </si>
+  <si>
+    <t>كمالي جم</t>
+  </si>
+  <si>
+    <t>مجدي</t>
+  </si>
+  <si>
+    <t>محمدي</t>
+  </si>
+  <si>
+    <t>مهدا</t>
+  </si>
+  <si>
+    <t>معروف وند</t>
+  </si>
+  <si>
+    <t>منصوري</t>
+  </si>
+  <si>
+    <t>نصيري</t>
+  </si>
+  <si>
+    <t>نيك</t>
+  </si>
+  <si>
+    <t>همتي</t>
+  </si>
+  <si>
+    <t>هوراندي</t>
+  </si>
+  <si>
+    <t>سجاد</t>
+  </si>
+  <si>
+    <t>واشقاني</t>
+  </si>
+  <si>
+    <t>يونس سينكي</t>
+  </si>
+  <si>
+    <t>محمدسعيد</t>
+  </si>
+  <si>
+    <t>پورمهدوي</t>
+  </si>
+  <si>
+    <t>كيارش</t>
+  </si>
+  <si>
+    <t>چهل اميراني</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -51,6 +273,12 @@
     <font>
       <sz val="7"/>
       <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
@@ -96,7 +324,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -104,7 +332,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -423,8 +657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1A4B7E5-F180-4B55-87AD-F4092AD414B4}">
   <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C41"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -441,229 +675,475 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
+      <c r="A2" s="4">
+        <v>228950418463</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
+      <c r="A3" s="5">
+        <v>39922840310152</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="A4" s="4">
+        <v>39922840310131</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
+      <c r="A5" s="3">
+        <v>228960235024</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="A6" s="4">
+        <v>228960152588</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
+      <c r="A7" s="3">
+        <v>39922840310162</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
+      <c r="A8" s="4">
+        <v>39922840310121</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
+      <c r="A9" s="3">
+        <v>39922840310030</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
+      <c r="A10" s="4">
+        <v>39922841054222</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
+      <c r="A11" s="3">
+        <v>228980116345</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
+      <c r="A12" s="4">
+        <v>39922840310088</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
+      <c r="A13" s="3">
+        <v>228950388615</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
+      <c r="A14" s="4">
+        <v>39922840310163</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
+      <c r="A15" s="3">
+        <v>228960204155</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
+      <c r="A16" s="4">
+        <v>39922840310172</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
+      <c r="A17" s="3">
+        <v>39922840310151</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
+      <c r="A18" s="4">
+        <v>228980118694</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
+      <c r="A19" s="3">
+        <v>228960197209</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
+      <c r="A20" s="4">
+        <v>39922830117036</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
+      <c r="A21" s="3">
+        <v>228980123530</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
+      <c r="A22" s="4">
+        <v>39922841054066</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
+      <c r="A23" s="3">
+        <v>39922841054044</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
+      <c r="A24" s="4">
+        <v>39922840310024</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
+      <c r="A25" s="3">
+        <v>228980125279</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
+      <c r="A26" s="4">
+        <v>39922840310204</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
+      <c r="A27" s="3">
+        <v>39922840310051</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
+      <c r="A28" s="4">
+        <v>39922830117125</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
+      <c r="A29" s="3">
+        <v>39922840310203</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
+      <c r="A30" s="4">
+        <v>39922840310233</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
+      <c r="A31" s="3">
+        <v>39922840310150</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
+      <c r="A32" s="4">
+        <v>39922840310098</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
+      <c r="A33" s="3">
+        <v>228960184489</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
+      <c r="A34" s="4">
+        <v>39922840310225</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
+      <c r="A35" s="3">
+        <v>39922840310193</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
+      <c r="A36" s="4">
+        <v>228970083510</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
+      <c r="A37" s="3">
+        <v>228950418730</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
+      <c r="A38" s="4">
+        <v>39922840310037</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
+      <c r="A39" s="3">
+        <v>228980129812</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
+      <c r="A40" s="4">
+        <v>39922840310072</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
+      <c r="A41" s="3">
+        <v>228960213878</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
+      <c r="A42" s="4">
+        <v>39922840310202</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="2"/>
